--- a/forms/psa_biomass_decomp_bag/psa_biomass_decomp_bag_v3_editing.xlsx
+++ b/forms/psa_biomass_decomp_bag/psa_biomass_decomp_bag_v3_editing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saseehav\Documents\GitHub\Kobo\forms\psa_biomass_decomp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saseehav\Documents\GitHub\Kobo\forms\psa_biomass_decomp_bag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" calcOnSave="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="226">
   <si>
     <t>type</t>
   </si>
@@ -104,9 +104,6 @@
     <t>false</t>
   </si>
   <si>
-    <t>${first_time} = 'yes'</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -266,24 +263,15 @@
     <t>begin_group</t>
   </si>
   <si>
-    <t>dry_wt_group_000</t>
-  </si>
-  <si>
     <t>Decomp Bag Fresh Subplot1  inside target weight:  ${target1_bag_wt}</t>
   </si>
   <si>
     <t>barcode</t>
   </si>
   <si>
-    <t>decomp_bag_000</t>
-  </si>
-  <si>
     <t>Use the camera to scan a barcode</t>
   </si>
   <si>
-    <t>dry_wt_000</t>
-  </si>
-  <si>
     <t>Total Fresh Wt (grams)</t>
   </si>
   <si>
@@ -293,105 +281,6 @@
     <t>end_group</t>
   </si>
   <si>
-    <t>dry_wt_group_001</t>
-  </si>
-  <si>
-    <t>decomp_bag_001</t>
-  </si>
-  <si>
-    <t>dry_wt_001</t>
-  </si>
-  <si>
-    <t>dry_wt_group_002</t>
-  </si>
-  <si>
-    <t>decomp_bag_002</t>
-  </si>
-  <si>
-    <t>dry_wt_002</t>
-  </si>
-  <si>
-    <t>dry_wt_group_003</t>
-  </si>
-  <si>
-    <t>decomp_bag_003</t>
-  </si>
-  <si>
-    <t>dry_wt_003</t>
-  </si>
-  <si>
-    <t>dry_wt_group_004</t>
-  </si>
-  <si>
-    <t>decomp_bag_004</t>
-  </si>
-  <si>
-    <t>dry_wt_004</t>
-  </si>
-  <si>
-    <t>dry_wt_group_005</t>
-  </si>
-  <si>
-    <t>decomp_bag_005</t>
-  </si>
-  <si>
-    <t>dry_wt_005</t>
-  </si>
-  <si>
-    <t>dry_wt_group_006</t>
-  </si>
-  <si>
-    <t>decomp_bag_006</t>
-  </si>
-  <si>
-    <t>dry_wt_006</t>
-  </si>
-  <si>
-    <t>dry_wt_group_007</t>
-  </si>
-  <si>
-    <t>decomp_bag_007</t>
-  </si>
-  <si>
-    <t>dry_wt_007</t>
-  </si>
-  <si>
-    <t>dry_wt_group_008</t>
-  </si>
-  <si>
-    <t>decomp_bag_008</t>
-  </si>
-  <si>
-    <t>dry_wt_008</t>
-  </si>
-  <si>
-    <t>dry_wt_group_009</t>
-  </si>
-  <si>
-    <t>decomp_bag_009</t>
-  </si>
-  <si>
-    <t>dry_wt_009</t>
-  </si>
-  <si>
-    <t>dry_wt_group_010</t>
-  </si>
-  <si>
-    <t>decomp_bag_010</t>
-  </si>
-  <si>
-    <t>dry_wt_010</t>
-  </si>
-  <si>
-    <t>dry_wt_group_011</t>
-  </si>
-  <si>
-    <t>decomp_bag_011</t>
-  </si>
-  <si>
-    <t>dry_wt_011</t>
-  </si>
-  <si>
     <t>end_sub1</t>
   </si>
   <si>
@@ -458,120 +347,12 @@
     <t>Fill 12 bags (10 mesh and 2 paper) for Subplot 2 (A’s and B’s) T0 to T5.</t>
   </si>
   <si>
-    <t>dry_wt_group_sub2_012</t>
-  </si>
-  <si>
     <t>Decomp Bag Fresh Subplot 2 Rows A and B Target weight:  ${target2_bag_wt}</t>
   </si>
   <si>
-    <t>decomp_bag_012</t>
-  </si>
-  <si>
-    <t>dry_wt_012</t>
-  </si>
-  <si>
-    <t>dry_wt_group_sub2_013</t>
-  </si>
-  <si>
     <t>Decomp Bag Fresh Subplot 2 inside target weight:  ${target2_bag_wt}</t>
   </si>
   <si>
-    <t>decomp_bag_013</t>
-  </si>
-  <si>
-    <t>dry_wt_013</t>
-  </si>
-  <si>
-    <t>dry_wt_group_sub2_014</t>
-  </si>
-  <si>
-    <t>decomp_bag_014</t>
-  </si>
-  <si>
-    <t>dry_wt_014</t>
-  </si>
-  <si>
-    <t>dry_wt_group_sub2_015</t>
-  </si>
-  <si>
-    <t>decomp_bag_015</t>
-  </si>
-  <si>
-    <t>dry_wt_015</t>
-  </si>
-  <si>
-    <t>dry_wt_group_sub2_016</t>
-  </si>
-  <si>
-    <t>decomp_bag_016</t>
-  </si>
-  <si>
-    <t>dry_wt_016</t>
-  </si>
-  <si>
-    <t>dry_wt_group_sub2_017</t>
-  </si>
-  <si>
-    <t>decomp_bag_017</t>
-  </si>
-  <si>
-    <t>dry_wt_017</t>
-  </si>
-  <si>
-    <t>dry_wt_group_sub2_018</t>
-  </si>
-  <si>
-    <t>decomp_bag_018</t>
-  </si>
-  <si>
-    <t>dry_wt_018</t>
-  </si>
-  <si>
-    <t>dry_wt_group_sub2_019</t>
-  </si>
-  <si>
-    <t>decomp_bag_019</t>
-  </si>
-  <si>
-    <t>dry_wt_019</t>
-  </si>
-  <si>
-    <t>dry_wt_group_sub2_020</t>
-  </si>
-  <si>
-    <t>decomp_bag_020</t>
-  </si>
-  <si>
-    <t>dry_wt_020</t>
-  </si>
-  <si>
-    <t>dry_wt_group_sub2_021</t>
-  </si>
-  <si>
-    <t>decomp_bag_021</t>
-  </si>
-  <si>
-    <t>dry_wt_021</t>
-  </si>
-  <si>
-    <t>dry_wt_group_sub2_022</t>
-  </si>
-  <si>
-    <t>decomp_bag_022</t>
-  </si>
-  <si>
-    <t>dry_wt_022</t>
-  </si>
-  <si>
-    <t>dry_wt_group_sub2_023</t>
-  </si>
-  <si>
-    <t>decomp_bag_023</t>
-  </si>
-  <si>
-    <t>dry_wt_023</t>
-  </si>
-  <si>
     <t>end_sub2</t>
   </si>
   <si>
@@ -626,9 +407,6 @@
     <t>Less than 40% legume</t>
   </si>
   <si>
-    <t>https://youtu.be/-dBwwF906eE</t>
-  </si>
-  <si>
     <t>subplot_diagram.jpg</t>
   </si>
   <si>
@@ -647,12 +425,6 @@
     <t>If you do not know, enter the date in a separate form for field info</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>Watch this short YouTube video about On-Farm Biomass</t>
-  </si>
-  <si>
     <t>appearance</t>
   </si>
   <si>
@@ -711,26 +483,235 @@
   </si>
   <si>
     <t>Now fill 12 bags (10 mesh and 2 paper) for subplot 1 (A’s and B’s) T0 to T5.</t>
+  </si>
+  <si>
+    <t>group_000</t>
+  </si>
+  <si>
+    <t>barcode_bag_000</t>
+  </si>
+  <si>
+    <t>group_001</t>
+  </si>
+  <si>
+    <t>barcode_bag_001</t>
+  </si>
+  <si>
+    <t>group_002</t>
+  </si>
+  <si>
+    <t>barcode_bag_002</t>
+  </si>
+  <si>
+    <t>group_003</t>
+  </si>
+  <si>
+    <t>barcode_bag_003</t>
+  </si>
+  <si>
+    <t>group_004</t>
+  </si>
+  <si>
+    <t>barcode_bag_004</t>
+  </si>
+  <si>
+    <t>group_005</t>
+  </si>
+  <si>
+    <t>barcode_bag_005</t>
+  </si>
+  <si>
+    <t>group_006</t>
+  </si>
+  <si>
+    <t>barcode_bag_006</t>
+  </si>
+  <si>
+    <t>group_007</t>
+  </si>
+  <si>
+    <t>barcode_bag_007</t>
+  </si>
+  <si>
+    <t>group_008</t>
+  </si>
+  <si>
+    <t>barcode_bag_008</t>
+  </si>
+  <si>
+    <t>group_009</t>
+  </si>
+  <si>
+    <t>barcode_bag_009</t>
+  </si>
+  <si>
+    <t>group_010</t>
+  </si>
+  <si>
+    <t>barcode_bag_010</t>
+  </si>
+  <si>
+    <t>group_011</t>
+  </si>
+  <si>
+    <t>barcode_bag_011</t>
+  </si>
+  <si>
+    <t>group_sub2_012</t>
+  </si>
+  <si>
+    <t>barcode_bag_012</t>
+  </si>
+  <si>
+    <t>group_sub2_013</t>
+  </si>
+  <si>
+    <t>barcode_bag_013</t>
+  </si>
+  <si>
+    <t>group_sub2_014</t>
+  </si>
+  <si>
+    <t>barcode_bag_014</t>
+  </si>
+  <si>
+    <t>group_sub2_015</t>
+  </si>
+  <si>
+    <t>barcode_bag_015</t>
+  </si>
+  <si>
+    <t>group_sub2_016</t>
+  </si>
+  <si>
+    <t>barcode_bag_016</t>
+  </si>
+  <si>
+    <t>group_sub2_017</t>
+  </si>
+  <si>
+    <t>barcode_bag_017</t>
+  </si>
+  <si>
+    <t>group_sub2_018</t>
+  </si>
+  <si>
+    <t>barcode_bag_018</t>
+  </si>
+  <si>
+    <t>group_sub2_019</t>
+  </si>
+  <si>
+    <t>barcode_bag_019</t>
+  </si>
+  <si>
+    <t>group_sub2_020</t>
+  </si>
+  <si>
+    <t>barcode_bag_020</t>
+  </si>
+  <si>
+    <t>group_sub2_021</t>
+  </si>
+  <si>
+    <t>barcode_bag_021</t>
+  </si>
+  <si>
+    <t>group_sub2_022</t>
+  </si>
+  <si>
+    <t>barcode_bag_022</t>
+  </si>
+  <si>
+    <t>group_sub2_023</t>
+  </si>
+  <si>
+    <t>barcode_bag_023</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_000</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_001</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_002</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_003</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_004</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_005</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_006</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_007</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_008</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_009</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_010</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_011</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_012</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_013</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_014</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_015</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_016</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_017</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_018</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_019</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_020</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_021</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_022</t>
+  </si>
+  <si>
+    <t>fresh_bag_wt_grams_023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -756,22 +737,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1074,26 +1049,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L147"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="6" max="6" width="27.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1103,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1117,7 +1093,7 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K1" t="s">
@@ -1131,7 +1107,7 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1139,7 +1115,7 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1147,7 +1123,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
@@ -1161,7 +1137,7 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
@@ -1175,7 +1151,7 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
@@ -1186,7 +1162,7 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
@@ -1199,285 +1175,274 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>28</v>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
+      <c r="B12" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>202</v>
+        <v>149</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>203</v>
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>213</v>
+        <v>36</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
         <v>40</v>
       </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" t="s">
-        <v>41</v>
+      <c r="K15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
       </c>
       <c r="G16" t="s">
         <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G17" t="s">
         <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>50</v>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
-        <v>53</v>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>150</v>
+      </c>
+      <c r="D20" t="s">
+        <v>151</v>
       </c>
       <c r="G20" t="s">
         <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D21" t="s">
-        <v>227</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>216</v>
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
-      </c>
-      <c r="H22" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
@@ -1485,13 +1450,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
         <v>26</v>
@@ -1499,10 +1464,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C25" t="s">
         <v>64</v>
@@ -1513,13 +1478,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>215</v>
+        <v>37</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
         <v>26</v>
@@ -1527,13 +1492,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
         <v>26</v>
@@ -1541,69 +1506,69 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G28" t="s">
         <v>26</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>70</v>
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
       </c>
       <c r="G29" t="s">
         <v>26</v>
-      </c>
-      <c r="K29" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G30" t="s">
         <v>26</v>
+      </c>
+      <c r="K30" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
+        <v>13</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
       </c>
       <c r="G31" t="s">
         <v>26</v>
-      </c>
-      <c r="K31" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
         <v>26</v>
@@ -1613,11 +1578,11 @@
       <c r="A33" t="s">
         <v>13</v>
       </c>
-      <c r="B33" t="s">
-        <v>77</v>
+      <c r="B33" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="G33" t="s">
         <v>26</v>
@@ -1625,13 +1590,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
         <v>79</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C34" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s">
         <v>26</v>
@@ -1639,10 +1604,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" t="s">
         <v>81</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C35" t="s">
         <v>82</v>
@@ -1653,13 +1618,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" t="s">
         <v>83</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>84</v>
-      </c>
-      <c r="C36" t="s">
-        <v>85</v>
       </c>
       <c r="G36" t="s">
         <v>26</v>
@@ -1667,32 +1635,29 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" t="s">
-        <v>90</v>
+        <v>81</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="C39" t="s">
         <v>82</v>
@@ -1703,13 +1668,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" t="s">
         <v>83</v>
       </c>
-      <c r="B40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
+      <c r="D40" t="s">
+        <v>84</v>
       </c>
       <c r="G40" t="s">
         <v>26</v>
@@ -1717,32 +1685,29 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" t="s">
-        <v>93</v>
+        <v>81</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C43" t="s">
         <v>82</v>
@@ -1753,13 +1718,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" t="s">
         <v>83</v>
       </c>
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" t="s">
-        <v>85</v>
+      <c r="D44" t="s">
+        <v>84</v>
       </c>
       <c r="G44" t="s">
         <v>26</v>
@@ -1767,32 +1735,29 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
+        <v>81</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="C47" t="s">
         <v>82</v>
@@ -1803,13 +1768,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" t="s">
         <v>83</v>
       </c>
-      <c r="B48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" t="s">
-        <v>85</v>
+      <c r="D48" t="s">
+        <v>84</v>
       </c>
       <c r="G48" t="s">
         <v>26</v>
@@ -1817,32 +1785,29 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" t="s">
-        <v>99</v>
+        <v>81</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="C51" t="s">
         <v>82</v>
@@ -1853,13 +1818,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" t="s">
         <v>83</v>
       </c>
-      <c r="B52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" t="s">
-        <v>85</v>
+      <c r="D52" t="s">
+        <v>84</v>
       </c>
       <c r="G52" t="s">
         <v>26</v>
@@ -1867,32 +1835,29 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" t="s">
-        <v>88</v>
-      </c>
-      <c r="G53" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" t="s">
-        <v>102</v>
+        <v>81</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="C55" t="s">
         <v>82</v>
@@ -1903,13 +1868,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" t="s">
         <v>83</v>
       </c>
-      <c r="B56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" t="s">
-        <v>85</v>
+      <c r="D56" t="s">
+        <v>84</v>
       </c>
       <c r="G56" t="s">
         <v>26</v>
@@ -1917,32 +1885,29 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" t="s">
-        <v>88</v>
-      </c>
-      <c r="G57" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" t="s">
-        <v>105</v>
+        <v>81</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="C59" t="s">
         <v>82</v>
@@ -1953,13 +1918,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C60" t="s">
         <v>83</v>
       </c>
-      <c r="B60" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" t="s">
-        <v>85</v>
+      <c r="D60" t="s">
+        <v>84</v>
       </c>
       <c r="G60" t="s">
         <v>26</v>
@@ -1967,32 +1935,29 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D61" t="s">
-        <v>88</v>
-      </c>
-      <c r="G61" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" t="s">
-        <v>108</v>
+        <v>81</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="C63" t="s">
         <v>82</v>
@@ -2003,13 +1968,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" t="s">
         <v>83</v>
       </c>
-      <c r="B64" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" t="s">
-        <v>85</v>
+      <c r="D64" t="s">
+        <v>84</v>
       </c>
       <c r="G64" t="s">
         <v>26</v>
@@ -2017,32 +1985,29 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
+      </c>
+      <c r="G66" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" t="s">
-        <v>111</v>
+        <v>81</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C67" t="s">
         <v>82</v>
@@ -2053,13 +2018,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" t="s">
         <v>83</v>
       </c>
-      <c r="B68" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" t="s">
-        <v>85</v>
+      <c r="D68" t="s">
+        <v>84</v>
       </c>
       <c r="G68" t="s">
         <v>26</v>
@@ -2067,32 +2035,29 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69" t="s">
-        <v>113</v>
-      </c>
-      <c r="C69" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" t="s">
-        <v>114</v>
+        <v>81</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="C71" t="s">
         <v>82</v>
@@ -2103,13 +2068,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" t="s">
         <v>83</v>
       </c>
-      <c r="B72" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" t="s">
-        <v>85</v>
+      <c r="D72" t="s">
+        <v>84</v>
       </c>
       <c r="G72" t="s">
         <v>26</v>
@@ -2117,32 +2085,29 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" t="s">
-        <v>87</v>
-      </c>
-      <c r="D73" t="s">
-        <v>88</v>
-      </c>
-      <c r="G73" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" t="s">
-        <v>117</v>
+        <v>81</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2153,13 +2118,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" t="s">
         <v>83</v>
       </c>
-      <c r="B76" t="s">
-        <v>118</v>
-      </c>
-      <c r="C76" t="s">
-        <v>85</v>
+      <c r="D76" t="s">
+        <v>84</v>
       </c>
       <c r="G76" t="s">
         <v>26</v>
@@ -2167,32 +2135,29 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>38</v>
-      </c>
-      <c r="B77" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D77" t="s">
-        <v>88</v>
-      </c>
-      <c r="G77" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" t="s">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" t="s">
-        <v>120</v>
+        <v>81</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C79" t="s">
         <v>82</v>
@@ -2203,13 +2168,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80" t="s">
         <v>83</v>
       </c>
-      <c r="B80" t="s">
-        <v>121</v>
-      </c>
-      <c r="C80" t="s">
-        <v>85</v>
+      <c r="D80" t="s">
+        <v>84</v>
       </c>
       <c r="G80" t="s">
         <v>26</v>
@@ -2217,35 +2185,32 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>38</v>
-      </c>
-      <c r="B81" t="s">
-        <v>122</v>
-      </c>
-      <c r="C81" t="s">
-        <v>87</v>
-      </c>
-      <c r="D81" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>13</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>87</v>
+      </c>
+      <c r="G82" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>13</v>
       </c>
-      <c r="B83" t="s">
-        <v>123</v>
+      <c r="B83" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="G83" t="s">
         <v>26</v>
@@ -2255,11 +2220,14 @@
       <c r="A84" t="s">
         <v>13</v>
       </c>
-      <c r="B84" t="s">
-        <v>125</v>
+      <c r="B84" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="C84" t="s">
-        <v>126</v>
+        <v>90</v>
+      </c>
+      <c r="D84" t="s">
+        <v>57</v>
       </c>
       <c r="G84" t="s">
         <v>26</v>
@@ -2267,16 +2235,13 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" t="s">
-        <v>217</v>
+        <v>58</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>127</v>
-      </c>
-      <c r="D85" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="G85" t="s">
         <v>26</v>
@@ -2284,13 +2249,13 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>59</v>
-      </c>
-      <c r="B86" t="s">
-        <v>128</v>
+        <v>37</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="G86" t="s">
         <v>26</v>
@@ -2298,13 +2263,13 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>38</v>
-      </c>
-      <c r="B87" t="s">
-        <v>129</v>
+        <v>37</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G87" t="s">
         <v>26</v>
@@ -2312,10 +2277,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>38</v>
-      </c>
-      <c r="B88" t="s">
-        <v>130</v>
+        <v>13</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="C88" t="s">
         <v>64</v>
@@ -2326,13 +2291,13 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" t="s">
-        <v>214</v>
+        <v>37</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G89" t="s">
         <v>26</v>
@@ -2340,13 +2305,13 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>38</v>
-      </c>
-      <c r="B90" t="s">
-        <v>131</v>
+        <v>37</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G90" t="s">
         <v>26</v>
@@ -2354,69 +2319,69 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>38</v>
-      </c>
-      <c r="B91" t="s">
-        <v>132</v>
-      </c>
-      <c r="C91" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="G91" t="s">
         <v>26</v>
+      </c>
+      <c r="K91" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>42</v>
-      </c>
-      <c r="B92" t="s">
-        <v>133</v>
+        <v>13</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" t="s">
+        <v>99</v>
       </c>
       <c r="G92" t="s">
         <v>26</v>
-      </c>
-      <c r="K92" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" t="s">
-        <v>135</v>
-      </c>
-      <c r="C93" t="s">
-        <v>136</v>
+        <v>41</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="G93" t="s">
         <v>26</v>
+      </c>
+      <c r="K93" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>42</v>
-      </c>
-      <c r="B94" t="s">
-        <v>137</v>
+        <v>13</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" t="s">
+        <v>103</v>
       </c>
       <c r="G94" t="s">
         <v>26</v>
-      </c>
-      <c r="K94" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>13</v>
       </c>
-      <c r="B95" t="s">
-        <v>139</v>
+      <c r="B95" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="G95" t="s">
         <v>26</v>
@@ -2426,11 +2391,11 @@
       <c r="A96" t="s">
         <v>13</v>
       </c>
-      <c r="B96" t="s">
-        <v>141</v>
+      <c r="B96" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C96" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="G96" t="s">
         <v>26</v>
@@ -2438,13 +2403,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" t="s">
-        <v>143</v>
+        <v>79</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="C97" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="G97" t="s">
         <v>26</v>
@@ -2452,13 +2417,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>80</v>
-      </c>
-      <c r="B98" t="s">
-        <v>145</v>
+        <v>81</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C98" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="G98" t="s">
         <v>26</v>
@@ -2466,13 +2431,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>37</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" t="s">
         <v>83</v>
       </c>
-      <c r="B99" t="s">
-        <v>147</v>
-      </c>
-      <c r="C99" t="s">
-        <v>85</v>
+      <c r="D99" t="s">
+        <v>84</v>
       </c>
       <c r="G99" t="s">
         <v>26</v>
@@ -2480,35 +2448,32 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>38</v>
-      </c>
-      <c r="B100" t="s">
-        <v>148</v>
-      </c>
-      <c r="C100" t="s">
-        <v>87</v>
-      </c>
-      <c r="D100" t="s">
-        <v>88</v>
-      </c>
-      <c r="G100" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" t="s">
+        <v>109</v>
+      </c>
+      <c r="G101" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>80</v>
-      </c>
-      <c r="B102" t="s">
-        <v>149</v>
+        <v>81</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="C102" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="G102" t="s">
         <v>26</v>
@@ -2516,13 +2481,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103" t="s">
         <v>83</v>
       </c>
-      <c r="B103" t="s">
-        <v>151</v>
-      </c>
-      <c r="C103" t="s">
-        <v>85</v>
+      <c r="D103" t="s">
+        <v>84</v>
       </c>
       <c r="G103" t="s">
         <v>26</v>
@@ -2530,35 +2498,32 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>38</v>
-      </c>
-      <c r="B104" t="s">
-        <v>152</v>
-      </c>
-      <c r="C104" t="s">
-        <v>87</v>
-      </c>
-      <c r="D104" t="s">
-        <v>88</v>
-      </c>
-      <c r="G104" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" t="s">
+        <v>109</v>
+      </c>
+      <c r="G105" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>80</v>
-      </c>
-      <c r="B106" t="s">
-        <v>153</v>
+        <v>81</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="C106" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="G106" t="s">
         <v>26</v>
@@ -2566,13 +2531,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" t="s">
         <v>83</v>
       </c>
-      <c r="B107" t="s">
-        <v>154</v>
-      </c>
-      <c r="C107" t="s">
-        <v>85</v>
+      <c r="D107" t="s">
+        <v>84</v>
       </c>
       <c r="G107" t="s">
         <v>26</v>
@@ -2580,35 +2548,32 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>38</v>
-      </c>
-      <c r="B108" t="s">
-        <v>155</v>
-      </c>
-      <c r="C108" t="s">
-        <v>87</v>
-      </c>
-      <c r="D108" t="s">
-        <v>88</v>
-      </c>
-      <c r="G108" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C109" t="s">
+        <v>109</v>
+      </c>
+      <c r="G109" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>80</v>
-      </c>
-      <c r="B110" t="s">
-        <v>156</v>
+        <v>81</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="C110" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="G110" t="s">
         <v>26</v>
@@ -2616,13 +2581,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" t="s">
         <v>83</v>
       </c>
-      <c r="B111" t="s">
-        <v>157</v>
-      </c>
-      <c r="C111" t="s">
-        <v>85</v>
+      <c r="D111" t="s">
+        <v>84</v>
       </c>
       <c r="G111" t="s">
         <v>26</v>
@@ -2630,35 +2598,32 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>38</v>
-      </c>
-      <c r="B112" t="s">
-        <v>158</v>
-      </c>
-      <c r="C112" t="s">
-        <v>87</v>
-      </c>
-      <c r="D112" t="s">
-        <v>88</v>
-      </c>
-      <c r="G112" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C113" t="s">
+        <v>109</v>
+      </c>
+      <c r="G113" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>80</v>
-      </c>
-      <c r="B114" t="s">
-        <v>159</v>
+        <v>81</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C114" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="G114" t="s">
         <v>26</v>
@@ -2666,13 +2631,16 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C115" t="s">
         <v>83</v>
       </c>
-      <c r="B115" t="s">
-        <v>160</v>
-      </c>
-      <c r="C115" t="s">
-        <v>85</v>
+      <c r="D115" t="s">
+        <v>84</v>
       </c>
       <c r="G115" t="s">
         <v>26</v>
@@ -2680,35 +2648,32 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>38</v>
-      </c>
-      <c r="B116" t="s">
-        <v>161</v>
-      </c>
-      <c r="C116" t="s">
-        <v>87</v>
-      </c>
-      <c r="D116" t="s">
-        <v>88</v>
-      </c>
-      <c r="G116" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C117" t="s">
+        <v>109</v>
+      </c>
+      <c r="G117" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>80</v>
-      </c>
-      <c r="B118" t="s">
-        <v>162</v>
+        <v>81</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="C118" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="G118" t="s">
         <v>26</v>
@@ -2716,13 +2681,16 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>37</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C119" t="s">
         <v>83</v>
       </c>
-      <c r="B119" t="s">
-        <v>163</v>
-      </c>
-      <c r="C119" t="s">
-        <v>85</v>
+      <c r="D119" t="s">
+        <v>84</v>
       </c>
       <c r="G119" t="s">
         <v>26</v>
@@ -2730,35 +2698,32 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>38</v>
-      </c>
-      <c r="B120" t="s">
-        <v>164</v>
-      </c>
-      <c r="C120" t="s">
-        <v>87</v>
-      </c>
-      <c r="D120" t="s">
-        <v>88</v>
-      </c>
-      <c r="G120" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C121" t="s">
+        <v>109</v>
+      </c>
+      <c r="G121" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>80</v>
-      </c>
-      <c r="B122" t="s">
-        <v>165</v>
+        <v>81</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C122" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="G122" t="s">
         <v>26</v>
@@ -2766,13 +2731,16 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>37</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C123" t="s">
         <v>83</v>
       </c>
-      <c r="B123" t="s">
-        <v>166</v>
-      </c>
-      <c r="C123" t="s">
-        <v>85</v>
+      <c r="D123" t="s">
+        <v>84</v>
       </c>
       <c r="G123" t="s">
         <v>26</v>
@@ -2780,35 +2748,32 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>38</v>
-      </c>
-      <c r="B124" t="s">
-        <v>167</v>
-      </c>
-      <c r="C124" t="s">
-        <v>87</v>
-      </c>
-      <c r="D124" t="s">
-        <v>88</v>
-      </c>
-      <c r="G124" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C125" t="s">
+        <v>109</v>
+      </c>
+      <c r="G125" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>80</v>
-      </c>
-      <c r="B126" t="s">
-        <v>168</v>
+        <v>81</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="C126" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="G126" t="s">
         <v>26</v>
@@ -2816,13 +2781,16 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>37</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127" t="s">
         <v>83</v>
       </c>
-      <c r="B127" t="s">
-        <v>169</v>
-      </c>
-      <c r="C127" t="s">
-        <v>85</v>
+      <c r="D127" t="s">
+        <v>84</v>
       </c>
       <c r="G127" t="s">
         <v>26</v>
@@ -2830,35 +2798,32 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>38</v>
-      </c>
-      <c r="B128" t="s">
-        <v>170</v>
-      </c>
-      <c r="C128" t="s">
-        <v>87</v>
-      </c>
-      <c r="D128" t="s">
-        <v>88</v>
-      </c>
-      <c r="G128" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C129" t="s">
+        <v>109</v>
+      </c>
+      <c r="G129" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>80</v>
-      </c>
-      <c r="B130" t="s">
-        <v>171</v>
+        <v>81</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="C130" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="G130" t="s">
         <v>26</v>
@@ -2866,13 +2831,16 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>37</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C131" t="s">
         <v>83</v>
       </c>
-      <c r="B131" t="s">
-        <v>172</v>
-      </c>
-      <c r="C131" t="s">
-        <v>85</v>
+      <c r="D131" t="s">
+        <v>84</v>
       </c>
       <c r="G131" t="s">
         <v>26</v>
@@ -2880,35 +2848,32 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>38</v>
-      </c>
-      <c r="B132" t="s">
-        <v>173</v>
-      </c>
-      <c r="C132" t="s">
-        <v>87</v>
-      </c>
-      <c r="D132" t="s">
-        <v>88</v>
-      </c>
-      <c r="G132" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C133" t="s">
+        <v>109</v>
+      </c>
+      <c r="G133" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>80</v>
-      </c>
-      <c r="B134" t="s">
-        <v>174</v>
+        <v>81</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="C134" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="G134" t="s">
         <v>26</v>
@@ -2916,13 +2881,16 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>37</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C135" t="s">
         <v>83</v>
       </c>
-      <c r="B135" t="s">
-        <v>175</v>
-      </c>
-      <c r="C135" t="s">
-        <v>85</v>
+      <c r="D135" t="s">
+        <v>84</v>
       </c>
       <c r="G135" t="s">
         <v>26</v>
@@ -2930,35 +2898,32 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>38</v>
-      </c>
-      <c r="B136" t="s">
-        <v>176</v>
-      </c>
-      <c r="C136" t="s">
-        <v>87</v>
-      </c>
-      <c r="D136" t="s">
-        <v>88</v>
-      </c>
-      <c r="G136" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C137" t="s">
+        <v>109</v>
+      </c>
+      <c r="G137" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>80</v>
-      </c>
-      <c r="B138" t="s">
-        <v>177</v>
+        <v>81</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C138" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="G138" t="s">
         <v>26</v>
@@ -2966,13 +2931,16 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>37</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C139" t="s">
         <v>83</v>
       </c>
-      <c r="B139" t="s">
-        <v>178</v>
-      </c>
-      <c r="C139" t="s">
-        <v>85</v>
+      <c r="D139" t="s">
+        <v>84</v>
       </c>
       <c r="G139" t="s">
         <v>26</v>
@@ -2980,35 +2948,32 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>38</v>
-      </c>
-      <c r="B140" t="s">
-        <v>179</v>
-      </c>
-      <c r="C140" t="s">
-        <v>87</v>
-      </c>
-      <c r="D140" t="s">
-        <v>88</v>
-      </c>
-      <c r="G140" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C141" t="s">
+        <v>109</v>
+      </c>
+      <c r="G141" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>80</v>
-      </c>
-      <c r="B142" t="s">
-        <v>180</v>
+        <v>81</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="C142" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="G142" t="s">
         <v>26</v>
@@ -3016,13 +2981,16 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>37</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C143" t="s">
         <v>83</v>
       </c>
-      <c r="B143" t="s">
-        <v>181</v>
-      </c>
-      <c r="C143" t="s">
-        <v>85</v>
+      <c r="D143" t="s">
+        <v>84</v>
       </c>
       <c r="G143" t="s">
         <v>26</v>
@@ -3030,52 +2998,35 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>38</v>
-      </c>
-      <c r="B144" t="s">
-        <v>182</v>
-      </c>
-      <c r="C144" t="s">
-        <v>87</v>
-      </c>
-      <c r="D144" t="s">
-        <v>88</v>
-      </c>
-      <c r="G144" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>89</v>
+        <v>13</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C145" t="s">
+        <v>111</v>
+      </c>
+      <c r="G145" t="s">
+        <v>26</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>13</v>
       </c>
-      <c r="B146" t="s">
-        <v>183</v>
+      <c r="B146" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="C146" t="s">
-        <v>184</v>
-      </c>
-      <c r="G146" t="s">
-        <v>26</v>
-      </c>
-      <c r="J146" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>13</v>
-      </c>
-      <c r="B147" t="s">
-        <v>220</v>
-      </c>
-      <c r="C147" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3096,7 +3047,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3107,68 +3058,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
